--- a/i_codebooks/D4_analytical_dataset_KM_ImmDis.xlsx
+++ b/i_codebooks/D4_analytical_dataset_KM_ImmDis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>metadata_content</t>
   </si>
@@ -147,11 +147,6 @@
   </si>
   <si>
     <t>date when the person is first found with {ImmDis}</t>
-  </si>
-  <si>
-    <t>if  entering_follow_up_{ImmDis} == 1:
-cohort_entry_date_{ImmDis} + 90
-otherwise: null</t>
   </si>
   <si>
     <t>yes</t>
@@ -224,25 +219,13 @@
     <t>date when the period ends</t>
   </si>
   <si>
-    <t>the period ends for one of the reasons stored in cause_end_petiod_</t>
-  </si>
-  <si>
-    <t>the first eriod starts at start_fllow_up; the next periods start … (see SAP)</t>
-  </si>
-  <si>
     <t>D4_analytical_dataset_KM_{ImmDis}</t>
   </si>
   <si>
-    <t>Persons that are in the cohort of {ImmDis}, with first periods of follow-up and flare (if any): this is the analytical dataset that enters the calculation of cumulative incidence at 180 days and at 365 days</t>
-  </si>
-  <si>
     <t>age_at_cohort_entry_date_{ImmDis}</t>
   </si>
   <si>
     <t>sex_at_instance_creation</t>
-  </si>
-  <si>
-    <t>note that this is not at start of follow-up</t>
   </si>
   <si>
     <t>flare_{ImmDis}</t>
@@ -265,6 +248,12 @@
   </si>
   <si>
     <t>start_follow_up_{ImmDis}_d</t>
+  </si>
+  <si>
+    <t>Persons that are in the cohort of {ImmDis}, with first periods of follow-up and flare (if any): this is the analytical dataset that enters the calculation of cumulative incidence at 180 days and at 365 days. This dataset is obtained from D3_followup_periods_in_cohort_{ImmDis} by selecting the first record (number_of_period_{ImmDis}) == 1</t>
+  </si>
+  <si>
+    <t>number of days in the follow up</t>
   </si>
 </sst>
 </file>
@@ -663,7 +652,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,15 +674,15 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -701,7 +690,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -709,7 +698,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -749,7 +738,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -760,13 +749,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,89 +815,115 @@
         <v>38</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E4" s="12"/>
       <c r="F4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>71</v>
+      <c r="F9" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -956,10 +971,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -970,10 +985,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -984,10 +999,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -998,10 +1013,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1012,10 +1027,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1026,10 +1041,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -1040,10 +1055,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -1054,10 +1069,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -1068,10 +1083,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -1082,10 +1097,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -1103,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1124,36 +1139,36 @@
         <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="I1" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>54</v>
@@ -1180,10 +1195,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>67</v>

--- a/i_codebooks/D4_analytical_dataset_KM_ImmDis.xlsx
+++ b/i_codebooks/D4_analytical_dataset_KM_ImmDis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>metadata_content</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>person_id</t>
-  </si>
-  <si>
-    <t>date when the person is first found with {ImmDis}</t>
   </si>
   <si>
     <t>yes</t>
@@ -674,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -682,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -690,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -698,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -738,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +752,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:V14"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,115 +812,112 @@
         <v>38</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -971,10 +965,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -985,10 +979,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -999,10 +993,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -1013,10 +1007,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1027,10 +1021,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1041,10 +1035,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -1055,10 +1049,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -1069,10 +1063,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -1083,10 +1077,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -1097,10 +1091,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -1139,36 +1133,36 @@
         <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>54</v>
@@ -1195,10 +1189,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
       </c>
       <c r="C3">
         <v>67</v>
